--- a/data/output/report.xlsx
+++ b/data/output/report.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Транзакции" sheetId="1" r:id="rId1"/>
-    <sheet name="Сводка" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Дата операции</t>
   </si>
@@ -71,26 +70,21 @@
     <t>RUB</t>
   </si>
   <si>
-    <t>Супермаркеты</t>
+    <t>Food</t>
   </si>
   <si>
     <t>5411</t>
   </si>
   <si>
-    <t>Колхоз</t>
-  </si>
-  <si>
-    <t>Итого потрачено:</t>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="dd.mm.yyyy hh:mm"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -109,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -144,14 +144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,67 +447,60 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="12" max="14" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="4">
-        <v>44561.69722222222</v>
-      </c>
-      <c r="B2" s="4">
-        <v>44561</v>
+      <c r="A2" s="2">
+        <v>44927.5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44927</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -519,14 +508,14 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2">
-        <v>-160.89</v>
+      <c r="E2">
+        <v>-100</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2">
-        <v>-160.89</v>
+      <c r="G2">
+        <v>-100</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -537,55 +526,17 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2">
-        <v>3</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>160.89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2">
-        <f>SUM(C4:C4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>-160.89</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/report.xlsx
+++ b/data/output/report.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Транзакции" sheetId="1" r:id="rId1"/>
+    <sheet name="Сводка" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Дата операции</t>
   </si>
@@ -70,21 +71,26 @@
     <t>RUB</t>
   </si>
   <si>
-    <t>Food</t>
+    <t>Супермаркеты</t>
   </si>
   <si>
     <t>5411</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Колхоз</t>
+  </si>
+  <si>
+    <t>Итого потрачено:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="dd.mm.yyyy hh:mm"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -103,18 +109,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD7E4BC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -144,10 +144,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,60 +451,67 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="12" max="14" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="2">
-        <v>44927.5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44927</v>
+      <c r="A2" s="4">
+        <v>44561.69722222222</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44561</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -508,14 +519,14 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>-100</v>
+      <c r="E2" s="2">
+        <v>-160.89</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
-        <v>-100</v>
+      <c r="G2" s="2">
+        <v>-160.89</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -526,17 +537,55 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="2">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>160.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2">
+        <f>SUM(C4:C4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>-160.89</v>
       </c>
     </row>
   </sheetData>
